--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Austeja.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Austeja.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:16:47 3_3_8038079</t>
+  </si>
+  <si>
+    <t>rrr</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,6 +157,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
